--- a/Discharge/Gavi_04_2022-07-22_1054.xlsx
+++ b/Discharge/Gavi_04_2022-07-22_1054.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/Ecuador2022/Discharge/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Discharge/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A8D1C-0EE7-DC4A-984B-140F479C174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C679CC9A-AF59-D44E-A629-AFDFCAC4974B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{B9B1BC75-3793-B948-92BB-1F5CCC6BEF74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -405,7 +407,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -464,7 +466,7 @@
         <v>0.45</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E19" si="0">(D3-D2)*(B3/100)*C3</f>
+        <f>(D3-D2)*(B3/100)*C3</f>
         <v>1.2600000000000003E-3</v>
       </c>
     </row>
@@ -483,7 +485,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E3:E19" si="0">(D4-D3)*(B4/100)*C4</f>
         <v>8.800000000000004E-3</v>
       </c>
     </row>
